--- a/01 Unity功能模块.xlsx
+++ b/01 Unity功能模块.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnitySpace\UnityCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2551FB7-E43B-4D46-97A6-ACF7E69A57EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFBF2B5-2373-4537-8E40-72E7E1067DF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{D6C26BAC-305C-4664-877E-B90D1F689502}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6C26BAC-305C-4664-877E-B90D1F689502}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unity" sheetId="1" r:id="rId1"/>
-    <sheet name="C#" sheetId="2" r:id="rId2"/>
-    <sheet name="数据结构" sheetId="3" r:id="rId3"/>
-    <sheet name="算法" sheetId="4" r:id="rId4"/>
-    <sheet name="3D图形学" sheetId="5" r:id="rId5"/>
+    <sheet name="大纲" sheetId="1" r:id="rId1"/>
+    <sheet name="指南" sheetId="7" r:id="rId2"/>
+    <sheet name="资源加载" sheetId="6" r:id="rId3"/>
+    <sheet name="C#" sheetId="2" r:id="rId4"/>
+    <sheet name="数据结构" sheetId="3" r:id="rId5"/>
+    <sheet name="算法" sheetId="4" r:id="rId6"/>
+    <sheet name="3D图形学" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,13 +84,126 @@
   <si>
     <t>Socket</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机图形学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D图形数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形编程接口（OpenGL、DirectX）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父类跟子类的内存管理关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源动态加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StreamingAssets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetBundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersistentDataPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读，即不能动态修改。所以想要动态更新的资源不要放在这里</t>
+  </si>
+  <si>
+    <t>会将文件夹内的资源打包集成到.asset文件里面。因此建议可以放一些Prefab，因为Prefab在打包时会自动过滤掉不需要的资源，有利于减小资源包的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源读取使用Resources.Load()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样，只读不可写</t>
+  </si>
+  <si>
+    <t>主要用来存放二进制文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能用过WWW类来读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Untiy3D定义的一种二进制类型</t>
+  </si>
+  <si>
+    <t>使用WWW类来下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时内容可读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写下的文件，可以在电脑上查看。同样也可以清掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无内容限制。你可以从StreamingAsset中读取二进制文件或者从AssetBundle读取文件来写入PersistentDataPath中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动平台资源路径加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.UGUI适配问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Unity UI性能优化技巧</t>
+  </si>
+  <si>
+    <t>Unity 技术手册</t>
+  </si>
+  <si>
+    <t>2019年Unity学习资源指南</t>
+  </si>
+  <si>
+    <t>3.Unity UI 框架</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +219,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,12 +267,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,11 +286,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,109 +633,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169CAD99-9D45-4843-A40A-89652E977F2D}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="11.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="资源加载!A1" display="资源动态加载" xr:uid="{41089D8F-3CCE-4D6B-AC8C-3BD8D032F171}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{B22A43FD-18D7-40D1-A96B-6FA3D31F7594}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{7F90D925-191C-44A7-A6AA-AB1164C20072}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFD9860-9BA1-4724-8947-250FC712B029}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B6EA46-2677-4EB9-9EE7-B384ED8353C7}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{C85BC8FF-323C-4EE2-B34E-5F0164E9127A}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{699211BD-DB12-4358-8DDC-E06F92BA17F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEC6472-F2FC-47B4-8B10-13221B78B519}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="22.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFD9860-9BA1-4724-8947-250FC712B029}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FA27D3-4795-4D9A-A943-E589ADEB39C9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -568,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDF862C-7FF4-4E9B-B3AC-AE87770D2ADD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -581,14 +956,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E431A9F-54E5-4FBD-8920-70D4EA0530DE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
